--- a/Assets/GameConfigTool/Editor/Test/Excels/reftest.xlsx
+++ b/Assets/GameConfigTool/Editor/Test/Excels/reftest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -484,15 +484,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -584,16 +586,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
